--- a/bin/Debug/net6.0/src/SceneRole.xlsx
+++ b/bin/Debug/net6.0/src/SceneRole.xlsx
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -242,31 +242,34 @@
     <t xml:space="preserve">-796</t>
   </si>
   <si>
+    <t xml:space="preserve">bg_02\ntest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bg_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6,-500,1,0,1,0,1.2,250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Susan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role_Susan</t>
+  </si>
+  <si>
     <t xml:space="preserve">bg_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bg_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-720</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6,-500,1,0,1,0,1.2,250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Susan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role_Susan</t>
   </si>
 </sst>
 </file>
@@ -403,75 +406,75 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -771,7 +774,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N4" activeCellId="0" sqref="N4"/>
+      <selection pane="bottomRight" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1007,7 +1010,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="n">
         <v>2</v>
       </c>
@@ -1030,7 +1033,7 @@
         <v>-1194</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>37</v>
